--- a/20140604_emd/강원도/05_구시군의원-원주시-원주시다선거구.xlsx
+++ b/20140604_emd/강원도/05_구시군의원-원주시-원주시다선거구.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="9855"/>
+    <workbookView xWindow="120" yWindow="40" windowWidth="23720" windowHeight="9860"/>
   </bookViews>
   <sheets>
     <sheet name="시의원다선거구" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,9 +54,6 @@
     <t>잘못 투입·구분된 투표지</t>
   </si>
   <si>
-    <t>무소속</t>
-  </si>
-  <si>
     <t>중앙동</t>
   </si>
   <si>
@@ -113,26 +115,30 @@
     <t>개표진행상황(원주시의회의원선거 다선거구)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>무소속
+아무개</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -140,7 +146,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -148,7 +154,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -157,7 +163,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -166,10 +172,17 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -286,11 +299,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,7 +322,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -321,7 +334,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -368,10 +381,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,30 +679,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="61.5" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -706,23 +723,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
@@ -731,7 +748,7 @@
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -741,22 +758,22 @@
       <c r="K3" s="17"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="33">
+    <row r="4" spans="1:12" ht="28">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>11</v>
+      <c r="H4" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>3</v>
@@ -881,7 +898,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
@@ -919,7 +936,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -957,7 +974,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -995,7 +1012,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
@@ -1033,7 +1050,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
@@ -1071,7 +1088,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>9</v>
@@ -1109,7 +1126,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>2</v>
@@ -1147,7 +1164,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -1185,7 +1202,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -1223,7 +1240,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>2</v>
@@ -1261,7 +1278,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
@@ -1299,7 +1316,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>9</v>
@@ -1337,7 +1354,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>2</v>
@@ -1375,7 +1392,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>8</v>
@@ -1413,7 +1430,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
@@ -1502,6 +1519,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>